--- a/biology/Médecine/Maladie_systémique/Maladie_systémique.xlsx
+++ b/biology/Médecine/Maladie_systémique/Maladie_systémique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maladie_syst%C3%A9mique</t>
+          <t>Maladie_systémique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « maladie systémique » désigne toutes les maladies touchant tous les éléments d'un même système ou tissu. On trouve sous ce terme le lupus érythémateux disséminé, la polyarthrite rhumatoïde, la sclérodermie, la maladie de Lyme, la sarcoïdose, etc.
  Portail de la médecine                     </t>
